--- a/biology/Histoire de la zoologie et de la botanique/Jean_Roger_(paléontologue)/Jean_Roger_(paléontologue).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Roger_(paléontologue)/Jean_Roger_(paléontologue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_Roger_(pal%C3%A9ontologue)</t>
+          <t>Jean_Roger_(paléontologue)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Roger, né le 3 septembre 1909 à Tours[1] et mort le 13 avril 1996 à Olivet[2], est un paléontologue français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Roger, né le 3 septembre 1909 à Tours et mort le 13 avril 1996 à Olivet, est un paléontologue français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_Roger_(pal%C3%A9ontologue)</t>
+          <t>Jean_Roger_(paléontologue)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est agrégé de sciences naturelles (1935)[3] et docteur ès sciences. Paléontologue, il devient sous-directeur de la chaire de paléontologie au Muséum national d'histoire naturelle en 1942. Il est aussi professeur de paléontologie à l'Université Paris Sud-Orsay.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est agrégé de sciences naturelles (1935) et docteur ès sciences. Paléontologue, il devient sous-directeur de la chaire de paléontologie au Muséum national d'histoire naturelle en 1942. Il est aussi professeur de paléontologie à l'Université Paris Sud-Orsay.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean_Roger_(pal%C3%A9ontologue)</t>
+          <t>Jean_Roger_(paléontologue)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean Roger est l'auteur de :
 Thèses présentées à la Faculté des sciences de l'Université de Lyon pour obtenir le grade de docteur ès sciences naturelles. 1re thèse : Le Genre "Chlamys" dans les formations néogènes de l'Europe, conclusions générales sur la répartition géographique et stratigraphique des pectinidés du tertiaire récent... No 139. Paris, Société géologique de France , 1939. Gr. in-4, 295 p., fig., pl.
@@ -561,7 +577,7 @@
 Revue de quelques travaux paléobotaniques récents publiés en U.R.S.S., Annales du Centre d'études et de documentation paléontologiques. No 6, 2e trimestre 1954, Paris, Syndicat de documentation géologique et paléontologique , (1954). In-4°, 50 p., polytypé.
 Analyse de quelques travaux paléontologiques soviétiques récents relatifs aux vertébrés, Annales du Centre d'études et de documentation paléontologiques. No 10, février 1955. Edition : (S. l. , 1955.) In-4°, 44 p., polytypé.
 Paléontologie, Les Cahiers rationalistes. No 155, mai-juin 1956. Paris, Union rationaliste ; (La Ferté-Macé, impr. de Leroy) , 1956. In-8° (21 cm), paginé 147-178.
-Au sujet de l'espèce, essai de programme d'étude, 31 p.-[2] p. de pl.. Orsay : CERPAB , 1971
+Au sujet de l'espèce, essai de programme d'étude, 31 p.- p. de pl.. Orsay : CERPAB , 1971
 Paléontologie générale, 419 p. Bibliogr. p. 324-381. Index, Paris : Masson , 1974
 Paléontologie évolutive, VII-159 p. Bibliogr. p. 140-148. Index. Paris ; New York ; Barcelone : Masson , 1976
 Paléoécologie, VII-170 p. Bibliogr. p. 152-159. Index. Paris ; New York ; Barcelone : Masson , 1977</t>
